--- a/login.xlsx
+++ b/login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RPA - Contas de Consumo\RPA---Contas-de-Consumo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\OneDrive\Documentos\Hase tech\Cases\github\RPA - Contas de Consumo\RPA---Contas-de-Consumo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDE485E8-615E-4AD0-814C-99297A78C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7A4C36-AB22-4CFA-861D-13D920D95E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8F51E59F-85BB-4D2F-B07D-A9087B828773}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F51E59F-85BB-4D2F-B07D-A9087B828773}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>login</t>
   </si>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE464B9-724A-4DEE-92CE-A9AD3BF30001}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,9 +438,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5AFA8E60-E9EC-474E-A57D-1626B5C5E1E0}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F20A3058-9835-4488-B827-C21AF4D02247}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
